--- a/chaos-flare/checklist.xlsx
+++ b/chaos-flare/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/chaos-flare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DCB03F-2EF2-0147-B9B2-4FD10C021C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CD58AD-728E-A342-B859-CEA53CFBC62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{E35AB96F-4811-1247-95C4-D20E9137B666}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -120,9 +120,6 @@
     <t>Lapis Philosopher</t>
   </si>
   <si>
-    <t>lapis_philosphy_form.jpg</t>
-  </si>
-  <si>
     <t>異界戦記カオスフレア Second Chapter サプリメント フローライトプリズン</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>gods_egg.jpg</t>
+  </si>
+  <si>
+    <t>lapis_philosophy_form.jpg</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:F24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,19 +748,19 @@
         <v>2006</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -768,19 +768,19 @@
         <v>2007</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -828,19 +828,19 @@
         <v>2009</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,16 +848,16 @@
         <v>2010</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -868,19 +868,19 @@
         <v>2010</v>
       </c>
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -888,16 +888,16 @@
         <v>2012</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -908,16 +908,16 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -928,16 +928,16 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -948,16 +948,16 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -968,16 +968,16 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -988,16 +988,16 @@
         <v>2015</v>
       </c>
       <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1008,16 +1008,16 @@
         <v>2016</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1028,16 +1028,16 @@
         <v>2016</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1048,16 +1048,16 @@
         <v>2017</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1068,16 +1068,16 @@
         <v>2017</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1088,16 +1088,16 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1108,16 +1108,16 @@
         <v>2021</v>
       </c>
       <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
